--- a/PRweb_GMLA_SQL/For Jessica/data.xlsx
+++ b/PRweb_GMLA_SQL/For Jessica/data.xlsx
@@ -8903,16 +8903,16 @@
         <v>236</v>
       </c>
       <c r="H245" s="2">
-        <v>44734</v>
+        <v>44834</v>
       </c>
       <c r="I245" s="2">
         <v>44848</v>
       </c>
       <c r="J245" s="2">
-        <v>44734</v>
+        <v>44834</v>
       </c>
       <c r="K245" s="2">
-        <v>44746</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -17673,7 +17673,7 @@
         <v>231</v>
       </c>
       <c r="F526">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="G526" t="s">
         <v>236</v>
